--- a/pcb/star/rev_a/star_bom.xlsx
+++ b/pcb/star/rev_a/star_bom.xlsx
@@ -308,7 +308,7 @@
     <t>R7</t>
   </si>
   <si>
-    <t>514-2.20MLCT-ND</t>
+    <t>541-2.20MLCT-ND</t>
   </si>
   <si>
     <t>10M</t>
@@ -359,7 +359,7 @@
     <t>LION/LIPO Battery Charging IC Low current</t>
   </si>
   <si>
-    <t>LTC4065LEDC#TRMPBF</t>
+    <t>LTC4065LEDC#TRMPBFCT-ND</t>
   </si>
   <si>
     <t>TPS715AXX</t>
@@ -374,7 +374,7 @@
     <t>80ma LDO Regulator. Very low quiescent current. Always active.</t>
   </si>
   <si>
-    <t>TPS715A33DRVR</t>
+    <t>296-22584-1-ND</t>
   </si>
   <si>
     <t>16MHz</t>
@@ -399,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -420,6 +420,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,12 +435,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -463,8 +476,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,7 +509,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -502,7 +519,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6122448979592"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7704081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="75.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.984693877551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7142857142857"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3571428571429"/>
@@ -510,34 +527,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -632,7 +649,7 @@
       <c r="F5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -655,7 +672,7 @@
       <c r="F6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -678,7 +695,7 @@
       <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -701,7 +718,7 @@
       <c r="F8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -724,7 +741,7 @@
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -747,7 +764,7 @@
       <c r="F10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -770,7 +787,7 @@
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -793,7 +810,7 @@
       <c r="F12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -816,7 +833,7 @@
       <c r="F13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -859,7 +876,7 @@
       <c r="F15" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -908,10 +925,10 @@
       <c r="E17" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -931,10 +948,10 @@
       <c r="E18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -957,7 +974,7 @@
       <c r="F19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -980,7 +997,7 @@
       <c r="F20" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1026,7 +1043,7 @@
       <c r="F22" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1172,22 +1189,22 @@
       <c r="A29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>124</v>
       </c>
     </row>
